--- a/ninhid.xlsx
+++ b/ninhid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14640" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zzattack@gmail.com</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>zzattack@gmail.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="106">
   <si>
     <t>Component</t>
   </si>
@@ -127,24 +161,12 @@
     <t>n64 connector</t>
   </si>
   <si>
-    <t>output connector</t>
-  </si>
-  <si>
     <t>usb connector</t>
   </si>
   <si>
     <t>pcb</t>
   </si>
   <si>
-    <t>diodes / resistors</t>
-  </si>
-  <si>
-    <t>level converter</t>
-  </si>
-  <si>
-    <t>microcontroller</t>
-  </si>
-  <si>
     <t>extension cable n64</t>
   </si>
   <si>
@@ -157,9 +179,6 @@
     <t>internal headers</t>
   </si>
   <si>
-    <t>internal 2:1 mux</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -314,6 +333,42 @@
   </si>
   <si>
     <t>3v1</t>
+  </si>
+  <si>
+    <t>extension cable wii</t>
+  </si>
+  <si>
+    <t>mosfets</t>
+  </si>
+  <si>
+    <t>ltc power path</t>
+  </si>
+  <si>
+    <t>3.3v regulator tc1262</t>
+  </si>
+  <si>
+    <t>level converter gtl2002d</t>
+  </si>
+  <si>
+    <t>output connector rj12</t>
+  </si>
+  <si>
+    <t>output connector rj45</t>
+  </si>
+  <si>
+    <t>resistors / caps</t>
+  </si>
+  <si>
+    <t>level converter i2c</t>
+  </si>
+  <si>
+    <t>microcontroller pic18</t>
+  </si>
+  <si>
+    <t>enclosure</t>
+  </si>
+  <si>
+    <t>wii conncector</t>
   </si>
 </sst>
 </file>
@@ -323,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +407,19 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -736,7 +804,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -751,12 +819,12 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -771,7 +839,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,7 +859,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -846,16 +914,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -887,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D17" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D24" si="0">B3*C3</f>
         <v>2</v>
       </c>
     </row>
@@ -938,184 +1006,299 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4">
-        <v>1.6</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="4">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>2.69</v>
+        <v>0.6</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>2.69</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="4">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4">
-        <v>0.15</v>
+        <v>2.69</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>2.85</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
-        <v>47</v>
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2.5</v>
       </c>
       <c r="D19" s="4">
-        <f>SUM(D3:D17)</f>
-        <v>32.560000000000009</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4">
+        <f>SUM(D3:D22)</f>
+        <v>44.31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1131,13 +1314,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1148,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6"/>
       <c r="H2" s="6"/>
@@ -1161,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1172,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1183,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1194,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1205,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1216,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1227,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1238,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1260,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1271,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1293,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1304,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1348,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -1360,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1382,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1418,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1527,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,10 +1724,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1555,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1653,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
         <v>50</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
         <v>50</v>
-      </c>
-      <c r="F45" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
         <v>50</v>
-      </c>
-      <c r="F46" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1695,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
         <v>50</v>
-      </c>
-      <c r="F47" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
         <v>50</v>
-      </c>
-      <c r="F48" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
         <v>50</v>
-      </c>
-      <c r="F49" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
         <v>50</v>
-      </c>
-      <c r="F50" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
         <v>50</v>
-      </c>
-      <c r="F51" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,10 +1948,10 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,10 +2018,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1863,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,10 +2074,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1905,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,10 +2116,10 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1947,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1975,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1989,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2073,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2101,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2143,10 +2326,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2157,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,10 +2354,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2185,10 +2368,10 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2227,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2269,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2283,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F92" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2340,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,33 +2546,33 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2399,191 +2582,191 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
       <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
         <v>85</v>
       </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
         <v>83</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/ninhid.xlsx
+++ b/ninhid.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="14640" activeTab="1"/>
@@ -12,7 +12,7 @@
     <sheet name="proto" sheetId="3" r:id="rId3"/>
     <sheet name="power" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -176,9 +176,6 @@
     <t>extension cable snes</t>
   </si>
   <si>
-    <t>internal headers</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -338,37 +335,40 @@
     <t>extension cable wii</t>
   </si>
   <si>
-    <t>mosfets</t>
-  </si>
-  <si>
-    <t>ltc power path</t>
-  </si>
-  <si>
     <t>3.3v regulator tc1262</t>
   </si>
   <si>
-    <t>level converter gtl2002d</t>
-  </si>
-  <si>
     <t>output connector rj12</t>
   </si>
   <si>
     <t>output connector rj45</t>
   </si>
   <si>
-    <t>resistors / caps</t>
-  </si>
-  <si>
-    <t>level converter i2c</t>
-  </si>
-  <si>
     <t>microcontroller pic18</t>
   </si>
   <si>
     <t>enclosure</t>
   </si>
   <si>
-    <t>wii conncector</t>
+    <t>level converter gtl2010</t>
+  </si>
+  <si>
+    <t>resistors / caps / diodes</t>
+  </si>
+  <si>
+    <t>internal headers/cabling</t>
+  </si>
+  <si>
+    <t>without connectors (reusing male end of extension cables)</t>
+  </si>
+  <si>
+    <t>pricings @ 50 units</t>
+  </si>
+  <si>
+    <t>wii connector</t>
+  </si>
+  <si>
+    <t>fsa2257 switch</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$€-413]\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -443,14 +443,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -804,7 +807,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -819,12 +822,12 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -839,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,7 +862,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,7 +882,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -915,15 +918,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,16 +938,12 @@
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -951,11 +952,11 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D24" si="0">B3*C3</f>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D22" si="0">B3*C3</f>
         <v>2</v>
       </c>
     </row>
@@ -966,10 +967,10 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>1.99</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
@@ -981,10 +982,10 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>1.99</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
@@ -996,57 +997,57 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>1.99</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,10 +1057,10 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>0.25</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -1071,72 +1072,72 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,10 +1147,10 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>2.69</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>2.69</v>
       </c>
@@ -1161,10 +1162,10 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>2.1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
@@ -1176,123 +1177,97 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>2.85</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>2.85</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>2.5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <v>0.2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="4">
-        <v>1.55</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="4">
-        <f>SUM(D3:D22)</f>
-        <v>44.31</v>
+        <v>103</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="6">
+        <f>SUM(D3:D20)</f>
+        <v>32.460000000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="6">
+        <f>-SUM(D4:D7)</f>
+        <v>-6.97</v>
+      </c>
+      <c r="D25" s="6">
+        <f>D24-SUM(D4:D7)</f>
+        <v>25.490000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -1314,13 +1289,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1331,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1344,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1377,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1388,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1421,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1432,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1443,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1454,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1476,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1487,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,9 +1506,9 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1543,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
         <v>65</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1590,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1640,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1710,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1808,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,10 +1811,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1850,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1878,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1892,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,10 +1923,10 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1976,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1990,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2018,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,10 +2049,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2088,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2102,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2116,10 +2091,10 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2130,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2144,10 +2119,10 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2158,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2186,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2214,10 +2189,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2228,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2242,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,10 +2245,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
         <v>45</v>
-      </c>
-      <c r="F76" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2298,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
         <v>45</v>
-      </c>
-      <c r="F77" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2312,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
         <v>45</v>
-      </c>
-      <c r="F78" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
         <v>45</v>
-      </c>
-      <c r="F79" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
         <v>45</v>
-      </c>
-      <c r="F80" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2354,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
         <v>45</v>
-      </c>
-      <c r="F81" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2368,10 +2343,10 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
         <v>45</v>
-      </c>
-      <c r="F82" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
         <v>45</v>
-      </c>
-      <c r="F83" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2396,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2410,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2424,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2452,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2466,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2480,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2494,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2508,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2546,33 +2521,33 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2582,191 +2557,191 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
       <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
